--- a/analytics/Material Masterdata.xlsx
+++ b/analytics/Material Masterdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verbarg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verbarg\Nextcloud\Forschung\2022 Reporting UCC\2022-12 GeneratorGB\gb-salesdata\analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F5675E1-949A-4E80-B264-B542C71062FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EAC6C1-91C8-45D7-B148-096E8B79EE5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10500" firstSheet="1" activeTab="1" xr2:uid="{1351BFC7-F15F-4399-AFDD-69B71685AC1C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="SAPCrosstab1">Tabelle1!$A$1:$F$28</definedName>
+    <definedName name="SAPCrosstab1">Tabelle1!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentManualCount="8"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
   <si>
     <t>Net weight</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Deluxe GPS-Bike Computer Silver White</t>
   </si>
   <si>
-    <t>Deluxe Rental Bike</t>
-  </si>
-  <si>
     <t>Deluxe Touring Bike (black)</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>Men's Off Road Bike</t>
   </si>
   <si>
-    <t>Off Road Bike Computer</t>
-  </si>
-  <si>
     <t>Off Road Helmet</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>DGRW2000</t>
   </si>
   <si>
-    <t>DXRB1000</t>
-  </si>
-  <si>
     <t>DXTR1000</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>ORMN1000</t>
   </si>
   <si>
-    <t>ORBC1000</t>
-  </si>
-  <si>
     <t>OHMT1000</t>
   </si>
   <si>
@@ -224,9 +212,6 @@
   </si>
   <si>
     <t>each</t>
-  </si>
-  <si>
-    <t>Piece</t>
   </si>
 </sst>
 </file>
@@ -237,7 +222,7 @@
     <numFmt numFmtId="164" formatCode="###,000"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;#,##0"/>
     <numFmt numFmtId="166" formatCode="#,##0&quot; OZ&quot;;\-#,##0&quot; OZ&quot;;#,##0&quot; OZ&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,##0&quot; G&quot;;\-#,##0&quot; G&quot;;#,##0&quot; G&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0&quot; G&quot;;\-#,##0&quot; G&quot;;#,##0&quot; G&quot;"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -734,7 +719,7 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1">
@@ -1114,7 +1099,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C0142C-BA23-469A-B80E-6F01A2929C2F}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -1136,13 +1121,13 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1150,19 +1135,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F2" s="4">
         <v>10</v>
@@ -1170,19 +1155,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F3" s="5">
         <v>200</v>
@@ -1190,19 +1175,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F4" s="5">
         <v>200</v>
@@ -1210,19 +1195,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F5" s="5">
         <v>200</v>
@@ -1230,39 +1215,39 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F6" s="5">
-        <v>8600</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F7" s="5">
         <v>8510</v>
@@ -1270,19 +1255,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F8" s="5">
         <v>8510</v>
@@ -1290,79 +1275,79 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8510</v>
+        <v>55</v>
+      </c>
+      <c r="F9" s="4">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F10" s="4">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="4">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="F11" s="5">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F12" s="5">
         <v>200</v>
@@ -1370,19 +1355,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5">
         <v>200</v>
@@ -1390,119 +1375,119 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="5">
-        <v>200</v>
+        <v>55</v>
+      </c>
+      <c r="F14" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="4">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="F15" s="5">
+        <v>9460</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="5">
-        <v>9460</v>
+        <v>55</v>
+      </c>
+      <c r="F16" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F17" s="5">
-        <v>55</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="4">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="F18" s="5">
+        <v>7310</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F19" s="5">
         <v>7310</v>
@@ -1510,173 +1495,133 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="5">
-        <v>7310</v>
+        <v>53</v>
+      </c>
+      <c r="F20" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="5">
-        <v>7310</v>
+        <v>55</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F22" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F23" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F24" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="F25" s="5">
+        <v>9560</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="5">
-        <v>9560</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6" t="s">
         <v>1</v>
       </c>
     </row>
